--- a/BackTest/2020-01-23 BackTest LTC.xlsx
+++ b/BackTest/2020-01-23 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1210,11 +1210,17 @@
         <v>-1064.11348797</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>64850</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1249,17 @@
         <v>-1072.74108797</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>64800</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1288,17 @@
         <v>-1072.74108797</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>64550</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1327,17 @@
         <v>-1071.20728797</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>64550</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1366,17 @@
         <v>-1115.37838797</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>64650</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,15 +1405,17 @@
         <v>-1117.62838797</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>64550</v>
       </c>
-      <c r="J30" t="n">
-        <v>64550</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,17 +1444,15 @@
         <v>-1098.68348797</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>64500</v>
       </c>
-      <c r="J31" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1453,14 +1483,12 @@
         <v>-1202.84348797</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>64750</v>
       </c>
-      <c r="J32" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1494,14 +1522,12 @@
         <v>-1225.65868797</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>64500</v>
       </c>
-      <c r="J33" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1535,14 +1561,12 @@
         <v>-1338.45268797</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>64450</v>
       </c>
-      <c r="J34" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1576,14 +1600,12 @@
         <v>-1338.45268797</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>64300</v>
       </c>
-      <c r="J35" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1617,14 +1639,12 @@
         <v>-1331.49798797</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>64300</v>
       </c>
-      <c r="J36" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1658,14 +1678,12 @@
         <v>-1225.08968797</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>64500</v>
       </c>
-      <c r="J37" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1699,14 +1717,12 @@
         <v>-1187.38788797</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>64950</v>
       </c>
-      <c r="J38" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1740,14 +1756,12 @@
         <v>-1080.14268797</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>65000</v>
       </c>
-      <c r="J39" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1784,9 +1798,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1823,9 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1862,9 +1872,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1901,9 +1909,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,9 +1946,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1979,9 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2018,9 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2057,9 +2057,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2096,9 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2135,9 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2174,9 +2168,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,9 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,9 +2242,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2291,9 +2279,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2330,9 +2316,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2369,9 +2353,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2408,9 +2390,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2447,9 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,9 +2464,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2525,9 +2501,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2564,9 +2538,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2603,9 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,9 +2612,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2681,9 +2649,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2720,9 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2759,9 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,9 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2837,9 +2797,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2876,9 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2915,9 +2871,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2954,9 +2908,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2993,9 +2945,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,9 +2982,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3071,9 +3019,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,9 +3056,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3149,9 +3093,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3188,9 +3130,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,9 +3167,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,9 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3305,9 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,9 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,9 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,9 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,12 +3386,12 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>64550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>65550</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,9 +3428,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,9 +3465,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,9 +3502,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,9 +3539,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,9 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,9 +3613,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,9 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,9 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,9 +3761,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,9 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,9 +3835,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,9 +3872,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,9 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,9 +3946,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,9 +3983,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,9 +4020,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,9 +4057,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,9 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,9 +4131,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,9 +4168,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,9 +4205,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,9 +4242,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,9 +4279,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,9 +4316,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,9 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,9 +4390,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,9 +4427,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,9 +4464,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4631,9 +4501,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,9 +4538,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,9 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,9 +4612,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4787,9 +4649,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,9 +4686,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4865,9 +4723,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,9 +4760,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4943,9 +4797,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,9 +4834,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5021,9 +4871,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,9 +4908,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,9 +4945,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,9 +4982,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5177,9 +5019,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,9 +5056,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,9 +5093,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,9 +5130,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,9 +5167,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5372,9 +5204,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,9 +5241,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,9 +5278,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5489,9 +5315,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5528,9 +5352,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5567,9 +5389,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5606,9 +5426,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5645,9 +5463,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5684,9 +5500,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5723,9 +5537,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5762,9 +5574,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5801,9 +5611,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5840,9 +5648,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5879,9 +5685,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5918,9 +5722,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5957,9 +5759,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,9 +5796,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6035,9 +5833,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6074,9 +5870,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,9 +5907,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,9 +5944,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6191,9 +5981,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,9 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6269,9 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6308,9 +6092,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,9 +6129,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6386,9 +6166,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,9 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,9 +6240,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6503,9 +6277,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6542,9 +6314,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,9 +6351,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6620,9 +6388,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6659,9 +6425,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6698,9 +6462,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,9 +6499,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6776,9 +6536,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6815,9 +6573,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6854,9 +6610,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6893,9 +6647,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6932,9 +6684,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6971,9 +6721,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,9 +6758,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7049,9 +6795,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7088,9 +6832,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7127,9 +6869,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,9 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7205,9 +6943,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7244,9 +6980,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7283,9 +7017,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7322,9 +7054,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,9 +7091,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7400,9 +7128,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7439,9 +7165,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7478,9 +7202,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,9 +7239,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7556,9 +7276,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7595,9 +7313,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7634,9 +7350,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,9 +7387,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7712,9 +7424,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7751,9 +7461,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,9 +7498,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7829,9 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7868,9 +7572,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7907,9 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7946,9 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7985,9 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8024,9 +7720,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8063,9 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,9 +7794,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8141,9 +7831,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8180,9 +7868,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8219,9 +7905,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,9 +7942,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,9 +7979,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8336,9 +8016,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8375,9 +8053,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8414,9 +8090,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,9 +8127,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8492,9 +8164,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8531,9 +8201,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,9 +8238,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8609,9 +8275,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,9 +8312,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8687,9 +8349,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8726,9 +8386,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8765,9 +8423,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8804,9 +8460,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8843,9 +8497,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,9 +8534,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,9 +8571,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8960,9 +8608,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8999,9 +8645,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9038,9 +8682,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9077,9 +8719,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,9 +8756,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,9 +8793,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,9 +8830,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9233,9 +8867,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9272,9 +8904,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,9 +8941,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,9 +8978,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9389,9 +9015,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9428,9 +9052,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9467,9 +9089,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9506,9 +9126,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,9 +9163,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9584,9 +9200,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9623,9 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9662,9 +9274,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9701,9 +9311,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9740,9 +9348,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9779,9 +9385,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9818,9 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9857,9 +9459,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9896,9 +9496,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9935,9 +9533,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9974,9 +9570,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10013,9 +9607,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10052,9 +9644,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10091,9 +9681,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10130,9 +9718,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10169,9 +9755,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10208,9 +9792,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10247,9 +9829,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10286,9 +9866,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10325,9 +9903,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10364,9 +9940,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10400,19 +9974,17 @@
         <v>1727.37035003</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L261" t="n">
-        <v>1.03218048024787</v>
+        <v>1</v>
       </c>
       <c r="M261" t="inlineStr"/>
     </row>
@@ -10439,11 +10011,15 @@
         <v>1727.37035003</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10472,11 +10048,15 @@
         <v>1724.59805003</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10505,11 +10085,15 @@
         <v>1583.56845003</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10538,11 +10122,15 @@
         <v>1664.73675003</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10571,11 +10159,15 @@
         <v>1705.73675003</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10604,11 +10196,15 @@
         <v>1718.21265003</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10641,7 +10237,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10674,7 +10274,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10707,7 +10311,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10740,7 +10348,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10773,7 +10385,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10806,7 +10422,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10839,7 +10459,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10868,11 +10492,15 @@
         <v>2320.93625003</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10901,11 +10529,15 @@
         <v>2319.07645003</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10938,7 +10570,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10971,7 +10607,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11000,11 +10640,15 @@
         <v>2404.64485003</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11033,11 +10677,15 @@
         <v>2402.74585003</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11070,7 +10718,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11099,11 +10751,15 @@
         <v>2489.07975003</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11136,7 +10792,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11169,7 +10829,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11202,7 +10866,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11231,14 +10899,16 @@
         <v>2510.60725003</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -11462,7 +11132,7 @@
         <v>2201.07185003</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11495,7 +11165,7 @@
         <v>2201.15476047</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11528,7 +11198,7 @@
         <v>2232.79885003</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11561,7 +11231,7 @@
         <v>2227.79885003</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11594,7 +11264,7 @@
         <v>2236.38385003</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11627,7 +11297,7 @@
         <v>2197.11322053</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11660,7 +11330,7 @@
         <v>2142.02832053</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11693,7 +11363,7 @@
         <v>2142.02832053</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11726,7 +11396,7 @@
         <v>2138.68892053</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11759,7 +11429,7 @@
         <v>2255.64672053</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11792,7 +11462,7 @@
         <v>2255.64672053</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11825,7 +11495,7 @@
         <v>2257.51306679</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11858,7 +11528,7 @@
         <v>2257.21356679</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11891,7 +11561,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11924,7 +11594,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11957,7 +11627,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11990,7 +11660,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12023,7 +11693,7 @@
         <v>2363.94019514</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12122,7 +11792,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12254,7 +11924,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12287,7 +11957,7 @@
         <v>2362.790127820001</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12584,7 +12254,7 @@
         <v>1327.54372782</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12617,7 +12287,7 @@
         <v>1844.14062782</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12650,7 +12320,7 @@
         <v>1771.55422782</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12683,7 +12353,7 @@
         <v>1771.55422782</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12716,7 +12386,7 @@
         <v>1771.16372782</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12749,7 +12419,7 @@
         <v>1735.51827192</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12782,7 +12452,7 @@
         <v>1735.49207192</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12815,7 +12485,7 @@
         <v>1727.65247192</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12848,7 +12518,7 @@
         <v>1759.68647192</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12881,7 +12551,7 @@
         <v>1759.98517192</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12914,7 +12584,7 @@
         <v>1706.39817192</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12947,7 +12617,7 @@
         <v>1702.39817192</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12980,7 +12650,7 @@
         <v>1688.39337192</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13013,7 +12683,7 @@
         <v>1693.82377192</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13046,7 +12716,7 @@
         <v>1859.97227192</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13079,7 +12749,7 @@
         <v>1959.98729821</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13145,7 +12815,7 @@
         <v>1947.55209821</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13178,7 +12848,7 @@
         <v>2047.55209821</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13211,7 +12881,7 @@
         <v>2047.55209821</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13244,7 +12914,7 @@
         <v>2044.21869821</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13277,7 +12947,7 @@
         <v>2053.89138392</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13310,7 +12980,7 @@
         <v>2177.11798392</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13343,7 +13013,7 @@
         <v>2177.11798392</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14795,7 +14465,7 @@
         <v>2254.512683920001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14828,7 +14498,7 @@
         <v>2255.971283920001</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14861,7 +14531,7 @@
         <v>2257.048583920001</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14960,7 +14630,7 @@
         <v>2193.753983920001</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14993,7 +14663,7 @@
         <v>2163.753983920001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15026,7 +14696,7 @@
         <v>2178.408983920001</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15059,7 +14729,7 @@
         <v>2185.408983920001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15158,7 +14828,7 @@
         <v>2197.731883920001</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15191,7 +14861,7 @@
         <v>2197.731883920001</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15224,7 +14894,7 @@
         <v>2067.731883920001</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15587,7 +15257,7 @@
         <v>2227.178361690001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15653,7 +15323,7 @@
         <v>2227.178361690001</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15686,7 +15356,7 @@
         <v>2227.178361690001</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15719,7 +15389,7 @@
         <v>2228.363361690001</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15752,7 +15422,7 @@
         <v>2228.505761690001</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15785,7 +15455,7 @@
         <v>2228.505761690001</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15818,7 +15488,7 @@
         <v>2228.505761690001</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15851,7 +15521,7 @@
         <v>2228.505761690001</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15917,7 +15587,7 @@
         <v>2226.585161690001</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15950,7 +15620,7 @@
         <v>2226.585161690001</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15983,7 +15653,7 @@
         <v>2226.176061690001</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16016,7 +15686,7 @@
         <v>2113.331161690001</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16049,7 +15719,7 @@
         <v>2113.331161690001</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16082,7 +15752,7 @@
         <v>2113.331161690001</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16115,7 +15785,7 @@
         <v>2121.857061690002</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16148,7 +15818,7 @@
         <v>2121.857061690002</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16214,7 +15884,7 @@
         <v>2121.857061690002</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16247,7 +15917,7 @@
         <v>2123.400161690001</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16346,7 +16016,7 @@
         <v>2186.619561690001</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16379,7 +16049,7 @@
         <v>2201.576824690001</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16412,7 +16082,7 @@
         <v>2185.566624690001</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16445,7 +16115,7 @@
         <v>2178.145335340001</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16478,7 +16148,7 @@
         <v>2178.132735340001</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16511,7 +16181,7 @@
         <v>2114.322735340001</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16544,7 +16214,7 @@
         <v>2101.735135340001</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16577,7 +16247,7 @@
         <v>2085.724935340001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16610,7 +16280,7 @@
         <v>2043.589235340001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16643,7 +16313,7 @@
         <v>2329.478560220001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16676,7 +16346,7 @@
         <v>2327.892060220001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16709,7 +16379,7 @@
         <v>2345.404460220001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16742,7 +16412,7 @@
         <v>2624.992685720001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16973,7 +16643,7 @@
         <v>2280.525485720001</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17006,7 +16676,7 @@
         <v>2280.525485720001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17017,6 +16687,6 @@
       <c r="M461" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest LTC.xlsx
+++ b/BackTest/2020-01-23 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1210,173 +1210,149 @@
         <v>-1064.11348797</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>64850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>64700</v>
+      </c>
+      <c r="C26" t="n">
+        <v>64550</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64700</v>
+      </c>
+      <c r="E26" t="n">
+        <v>64550</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.627599999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1072.74108797</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>64550</v>
+      </c>
+      <c r="C27" t="n">
+        <v>64550</v>
+      </c>
+      <c r="D27" t="n">
+        <v>64550</v>
+      </c>
+      <c r="E27" t="n">
+        <v>64550</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.633</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1072.74108797</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>64650</v>
+      </c>
+      <c r="C28" t="n">
+        <v>64650</v>
+      </c>
+      <c r="D28" t="n">
+        <v>64650</v>
+      </c>
+      <c r="E28" t="n">
+        <v>64650</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.5338</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1071.20728797</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>64550</v>
+      </c>
+      <c r="C29" t="n">
+        <v>64550</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64550</v>
+      </c>
+      <c r="E29" t="n">
+        <v>64400</v>
+      </c>
+      <c r="F29" t="n">
+        <v>44.1711</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1115.37838797</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>64650</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>64700</v>
-      </c>
-      <c r="C26" t="n">
-        <v>64550</v>
-      </c>
-      <c r="D26" t="n">
-        <v>64700</v>
-      </c>
-      <c r="E26" t="n">
-        <v>64550</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8.627599999999999</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-1072.74108797</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>64800</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>64550</v>
-      </c>
-      <c r="C27" t="n">
-        <v>64550</v>
-      </c>
-      <c r="D27" t="n">
-        <v>64550</v>
-      </c>
-      <c r="E27" t="n">
-        <v>64550</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.633</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-1072.74108797</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>64550</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>64650</v>
-      </c>
-      <c r="C28" t="n">
-        <v>64650</v>
-      </c>
-      <c r="D28" t="n">
-        <v>64650</v>
-      </c>
-      <c r="E28" t="n">
-        <v>64650</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.5338</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-1071.20728797</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64550</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>64550</v>
-      </c>
-      <c r="C29" t="n">
-        <v>64550</v>
-      </c>
-      <c r="D29" t="n">
-        <v>64550</v>
-      </c>
-      <c r="E29" t="n">
-        <v>64400</v>
-      </c>
-      <c r="F29" t="n">
-        <v>44.1711</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-1115.37838797</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64650</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1405,11 +1381,9 @@
         <v>-1117.62838797</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1717,11 +1691,9 @@
         <v>-1187.38788797</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>64950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1756,11 +1728,9 @@
         <v>-1080.14268797</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2794,18 +2764,16 @@
         <v>-249.7109843999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2831,15 +2799,11 @@
         <v>-249.7109843999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2868,15 +2832,11 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2905,15 +2865,11 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2942,15 +2898,11 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2979,15 +2931,11 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3016,15 +2964,11 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3053,15 +2997,11 @@
         <v>-293.8865843999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3090,15 +3030,11 @@
         <v>-417.3905844</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3127,15 +3063,11 @@
         <v>-417.3905844</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3164,15 +3096,11 @@
         <v>-418.5305844</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3201,15 +3129,11 @@
         <v>-413.3161843999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3238,15 +3162,11 @@
         <v>-409.3161843999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3275,15 +3195,11 @@
         <v>-413.6031843999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3312,15 +3228,11 @@
         <v>-413.6031843999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3349,15 +3261,11 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3386,17 +3294,11 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>65550</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3425,15 +3327,11 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3462,15 +3360,11 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3499,15 +3393,11 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3536,15 +3426,11 @@
         <v>-455.8253843999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3573,15 +3459,11 @@
         <v>-345.8253843999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3614,11 +3496,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3651,11 +3529,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3688,11 +3562,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3725,11 +3595,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3762,11 +3628,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3799,11 +3661,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3694,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3873,11 +3727,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3910,11 +3760,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3947,11 +3793,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +3826,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4021,11 +3859,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +3892,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4095,11 +3925,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +3958,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +3991,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4206,11 +4024,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +4057,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4280,11 +4090,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4317,11 +4123,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4354,11 +4156,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4391,11 +4189,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4428,11 +4222,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +4255,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4502,11 +4288,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4539,11 +4321,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4354,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4613,11 +4387,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4650,11 +4420,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +4453,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4486,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4761,11 +4519,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4798,11 +4552,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4835,11 +4585,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4872,11 +4618,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +4651,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +4684,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4983,11 +4717,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5020,11 +4750,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5057,11 +4783,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5094,11 +4816,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5131,11 +4849,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +4882,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5205,11 +4915,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5242,11 +4948,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5279,11 +4981,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5316,11 +5014,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5353,11 +5047,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5390,11 +5080,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5427,11 +5113,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5464,11 +5146,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5501,11 +5179,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5538,11 +5212,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5571,15 +5241,11 @@
         <v>367.4614659499999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5608,15 +5274,11 @@
         <v>367.4614659499999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5645,15 +5307,11 @@
         <v>363.4614659499999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5682,15 +5340,11 @@
         <v>384.1771659499999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5719,15 +5373,11 @@
         <v>377.0345659499999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5756,15 +5406,11 @@
         <v>377.0523659499999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5793,15 +5439,11 @@
         <v>190.3840659499999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5830,15 +5472,11 @@
         <v>197.4173659499999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5867,15 +5505,11 @@
         <v>196.2529659499999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +5542,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +5575,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5982,11 +5608,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +5641,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6056,11 +5674,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6093,11 +5707,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +5740,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6167,11 +5773,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6204,11 +5806,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6241,11 +5839,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +5872,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6315,11 +5905,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6352,11 +5938,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6389,11 +5971,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6426,11 +6004,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6463,11 +6037,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6500,11 +6070,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6537,11 +6103,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6574,11 +6136,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6611,11 +6169,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6648,11 +6202,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6685,11 +6235,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +6268,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +6301,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6796,11 +6334,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6833,11 +6367,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6870,11 +6400,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6907,11 +6433,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +6466,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6981,11 +6499,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +6532,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7055,11 +6565,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7092,11 +6598,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7129,11 +6631,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7166,11 +6664,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7203,11 +6697,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7240,11 +6730,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7277,11 +6763,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +6796,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7351,11 +6829,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7388,11 +6862,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7425,11 +6895,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7462,11 +6928,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7499,11 +6961,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7536,11 +6994,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7573,11 +7027,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7610,11 +7060,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7647,11 +7093,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7684,11 +7126,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7721,11 +7159,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7758,11 +7192,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7795,11 +7225,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7832,11 +7258,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7869,11 +7291,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7906,11 +7324,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7943,11 +7357,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7980,11 +7390,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8017,11 +7423,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8054,11 +7456,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8091,11 +7489,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8128,11 +7522,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8165,11 +7555,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8202,11 +7588,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +7621,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8276,11 +7654,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +7687,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8350,11 +7720,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +7753,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8424,11 +7786,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +7819,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8498,11 +7852,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +7885,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +7918,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8609,11 +7951,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8646,11 +7984,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8683,11 +8017,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8720,11 +8050,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8757,11 +8083,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +8116,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8831,11 +8149,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8868,11 +8182,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8905,11 +8215,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8942,11 +8248,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8979,11 +8281,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9016,11 +8314,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9053,11 +8347,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9090,11 +8380,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9127,11 +8413,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9164,11 +8446,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9201,11 +8479,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9238,11 +8512,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9275,11 +8545,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9312,11 +8578,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9349,11 +8611,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +8644,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +8677,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +8710,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +8743,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9534,11 +8776,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9571,11 +8809,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9608,11 +8842,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9641,15 +8871,11 @@
         <v>934.9459500300001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9678,15 +8904,11 @@
         <v>934.9459500300001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9715,15 +8937,11 @@
         <v>935.2769500300001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9752,15 +8970,11 @@
         <v>931.7089500300001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9789,15 +9003,11 @@
         <v>1281.99505003</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9826,15 +9036,11 @@
         <v>1320.60705003</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9863,15 +9069,11 @@
         <v>1718.53895003</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9904,11 +9106,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9941,11 +9139,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9978,11 +9172,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10015,11 +9205,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10052,11 +9238,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10089,11 +9271,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10126,11 +9304,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10163,11 +9337,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10200,11 +9370,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10237,11 +9403,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10274,11 +9436,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10311,11 +9469,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10348,11 +9502,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10385,11 +9535,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10422,11 +9568,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10459,11 +9601,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10496,11 +9634,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10533,11 +9667,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10570,11 +9700,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10607,11 +9733,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10644,11 +9766,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +9799,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10718,11 +9832,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10755,11 +9865,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10792,11 +9898,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10829,11 +9931,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10866,11 +9964,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10899,16 +9993,14 @@
         <v>2510.60725003</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
       <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -11132,7 +10224,7 @@
         <v>2201.07185003</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11165,7 +10257,7 @@
         <v>2201.15476047</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11198,7 +10290,7 @@
         <v>2232.79885003</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11231,7 +10323,7 @@
         <v>2227.79885003</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11264,7 +10356,7 @@
         <v>2236.38385003</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11297,7 +10389,7 @@
         <v>2197.11322053</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11330,7 +10422,7 @@
         <v>2142.02832053</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11363,7 +10455,7 @@
         <v>2142.02832053</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11396,7 +10488,7 @@
         <v>2138.68892053</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11429,7 +10521,7 @@
         <v>2255.64672053</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11462,7 +10554,7 @@
         <v>2255.64672053</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11495,7 +10587,7 @@
         <v>2257.51306679</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11528,7 +10620,7 @@
         <v>2257.21356679</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11561,7 +10653,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11594,7 +10686,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11627,7 +10719,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12254,7 +11346,7 @@
         <v>1327.54372782</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12287,7 +11379,7 @@
         <v>1844.14062782</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12320,7 +11412,7 @@
         <v>1771.55422782</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12353,7 +11445,7 @@
         <v>1771.55422782</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12386,7 +11478,7 @@
         <v>1771.16372782</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12419,7 +11511,7 @@
         <v>1735.51827192</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12452,7 +11544,7 @@
         <v>1735.49207192</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12485,7 +11577,7 @@
         <v>1727.65247192</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12518,7 +11610,7 @@
         <v>1759.68647192</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12551,7 +11643,7 @@
         <v>1759.98517192</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12584,7 +11676,7 @@
         <v>1706.39817192</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12617,7 +11709,7 @@
         <v>1702.39817192</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12650,7 +11742,7 @@
         <v>1688.39337192</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12683,7 +11775,7 @@
         <v>1693.82377192</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12716,7 +11808,7 @@
         <v>1859.97227192</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12749,7 +11841,7 @@
         <v>1959.98729821</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12815,7 +11907,7 @@
         <v>1947.55209821</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12848,7 +11940,7 @@
         <v>2047.55209821</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12881,7 +11973,7 @@
         <v>2047.55209821</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12914,7 +12006,7 @@
         <v>2044.21869821</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12947,7 +12039,7 @@
         <v>2053.89138392</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12980,7 +12072,7 @@
         <v>2177.11798392</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13013,7 +12105,7 @@
         <v>2177.11798392</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14465,7 +13557,7 @@
         <v>2254.512683920001</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14498,7 +13590,7 @@
         <v>2255.971283920001</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14531,7 +13623,7 @@
         <v>2257.048583920001</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14663,7 +13755,7 @@
         <v>2163.753983920001</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14696,7 +13788,7 @@
         <v>2178.408983920001</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14729,7 +13821,7 @@
         <v>2185.408983920001</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15257,7 +14349,7 @@
         <v>2227.178361690001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15356,7 +14448,7 @@
         <v>2227.178361690001</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15389,7 +14481,7 @@
         <v>2228.363361690001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15917,7 +15009,7 @@
         <v>2123.400161690001</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16049,7 +15141,7 @@
         <v>2201.576824690001</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16082,7 +15174,7 @@
         <v>2185.566624690001</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16115,7 +15207,7 @@
         <v>2178.145335340001</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16148,7 +15240,7 @@
         <v>2178.132735340001</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16181,7 +15273,7 @@
         <v>2114.322735340001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16214,7 +15306,7 @@
         <v>2101.735135340001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16247,7 +15339,7 @@
         <v>2085.724935340001</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16280,7 +15372,7 @@
         <v>2043.589235340001</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16313,7 +15405,7 @@
         <v>2329.478560220001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16346,7 +15438,7 @@
         <v>2327.892060220001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16379,7 +15471,7 @@
         <v>2345.404460220001</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16412,7 +15504,7 @@
         <v>2624.992685720001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16643,7 +15735,7 @@
         <v>2280.525485720001</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16676,7 +15768,7 @@
         <v>2280.525485720001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16687,6 +15779,6 @@
       <c r="M461" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest LTC.xlsx
+++ b/BackTest/2020-01-23 BackTest LTC.xlsx
@@ -1309,10 +1309,14 @@
         <v>-1071.20728797</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>64550</v>
+      </c>
+      <c r="J28" t="n">
+        <v>64550</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1347,7 +1351,9 @@
       <c r="I29" t="n">
         <v>64650</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>64550</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1384,7 +1390,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>64550</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1423,7 +1431,9 @@
       <c r="I31" t="n">
         <v>64500</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>64550</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1462,7 +1472,9 @@
       <c r="I32" t="n">
         <v>64750</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>64550</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1501,7 +1513,9 @@
       <c r="I33" t="n">
         <v>64500</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>64550</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1540,7 +1554,9 @@
       <c r="I34" t="n">
         <v>64450</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>64550</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1579,7 +1595,9 @@
       <c r="I35" t="n">
         <v>64300</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>64550</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1618,7 +1636,9 @@
       <c r="I36" t="n">
         <v>64300</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>64550</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1657,7 +1677,9 @@
       <c r="I37" t="n">
         <v>64500</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>64550</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1691,10 +1713,14 @@
         <v>-1187.38788797</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>64950</v>
+      </c>
+      <c r="J38" t="n">
+        <v>64550</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1728,10 +1754,14 @@
         <v>-1080.14268797</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>65000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>64550</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1768,7 +1798,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>64550</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1802,10 +1834,14 @@
         <v>-995.9107879699998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>65150</v>
+      </c>
+      <c r="J41" t="n">
+        <v>64550</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1842,7 +1878,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>64550</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,10 +1914,14 @@
         <v>-931.0213879699998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>65300</v>
+      </c>
+      <c r="J43" t="n">
+        <v>64550</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1916,7 +1958,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>64550</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1953,7 +1997,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>64550</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1990,7 +2036,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>64550</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2027,7 +2075,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>64550</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,7 +2114,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>64550</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2101,7 +2153,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>64550</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2138,7 +2192,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>64550</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2175,7 +2231,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>64550</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2212,7 +2270,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>64550</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2249,7 +2309,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>64550</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2286,7 +2348,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>64550</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2323,7 +2387,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>64550</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2360,7 +2426,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>64550</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2397,7 +2465,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>64550</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,7 +2504,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>64550</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,7 +2543,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>64550</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,7 +2582,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>64550</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2545,7 +2621,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>64550</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,7 +2660,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>64550</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2619,7 +2699,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>64550</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,7 +2738,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>64550</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,7 +2777,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>64550</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2730,7 +2816,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>64550</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2764,16 +2852,20 @@
         <v>-249.7109843999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>64550</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2799,11 +2891,17 @@
         <v>-249.7109843999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2832,11 +2930,17 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2865,11 +2969,17 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2898,11 +3008,17 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +3047,17 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2964,11 +3086,17 @@
         <v>-289.8865843999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +3125,17 @@
         <v>-293.8865843999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3030,11 +3164,17 @@
         <v>-417.3905844</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +3203,17 @@
         <v>-417.3905844</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3096,11 +3242,17 @@
         <v>-418.5305844</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3129,11 +3281,17 @@
         <v>-413.3161843999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3162,11 +3320,17 @@
         <v>-409.3161843999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +3359,17 @@
         <v>-413.6031843999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3228,11 +3398,17 @@
         <v>-413.6031843999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3261,11 +3437,17 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3294,11 +3476,17 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3327,11 +3515,17 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3360,11 +3554,17 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3393,11 +3593,17 @@
         <v>-412.2171843999999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3426,11 +3632,17 @@
         <v>-455.8253843999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3459,11 +3671,17 @@
         <v>-345.8253843999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3495,8 +3713,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3528,8 +3752,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3561,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3594,8 +3830,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3627,8 +3869,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3660,8 +3908,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3693,8 +3947,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3726,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3759,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3792,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3825,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3858,8 +4142,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3891,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3924,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4259,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3990,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4023,8 +4337,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4056,8 +4376,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4089,8 +4415,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4122,8 +4454,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4155,8 +4493,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4188,8 +4532,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4221,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4254,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4287,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4320,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4353,8 +4727,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4386,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4419,8 +4805,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4452,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4485,8 +4883,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4518,8 +4922,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4551,8 +4961,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4584,8 +5000,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4617,8 +5039,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4650,8 +5078,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4683,8 +5117,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4716,8 +5156,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4749,8 +5195,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4782,8 +5234,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4815,8 +5273,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4848,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4881,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4914,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4947,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4980,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5013,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5046,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5079,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5145,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5178,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5211,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5241,11 +5777,17 @@
         <v>367.4614659499999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5274,11 +5816,17 @@
         <v>367.4614659499999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5855,17 @@
         <v>363.4614659499999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +5894,17 @@
         <v>384.1771659499999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5373,11 +5933,17 @@
         <v>377.0345659499999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +5972,17 @@
         <v>377.0523659499999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +6011,17 @@
         <v>190.3840659499999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5472,11 +6050,17 @@
         <v>197.4173659499999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +6089,17 @@
         <v>196.2529659499999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5541,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5574,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5607,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5640,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5673,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5706,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5739,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5772,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5805,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5838,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5871,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5904,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5937,8 +6599,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5970,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6003,8 +6677,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6036,8 +6716,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6069,8 +6755,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6102,8 +6794,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6135,8 +6833,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6168,8 +6872,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6201,8 +6911,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6234,8 +6950,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6989,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6300,8 +7028,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6333,8 +7067,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6366,8 +7106,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6399,8 +7145,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6432,8 +7184,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6465,8 +7223,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6498,8 +7262,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6531,8 +7301,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6564,8 +7340,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6597,8 +7379,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6630,8 +7418,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6663,8 +7457,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6696,8 +7496,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6729,8 +7535,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6762,8 +7574,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6795,8 +7613,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6828,8 +7652,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6861,8 +7691,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6894,8 +7730,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6927,8 +7769,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6960,8 +7808,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6993,8 +7847,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7026,8 +7886,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7059,8 +7925,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7092,8 +7964,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7125,8 +8003,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7158,8 +8042,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7191,8 +8081,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7224,8 +8120,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7257,8 +8159,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7290,8 +8198,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7323,8 +8237,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7356,8 +8276,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7389,8 +8315,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +8354,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7455,8 +8393,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7488,8 +8432,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7521,8 +8471,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7554,8 +8510,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7587,8 +8549,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7620,8 +8588,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7653,8 +8627,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7686,8 +8666,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7719,8 +8705,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7752,8 +8744,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7785,8 +8783,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7818,8 +8822,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7851,8 +8861,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7884,8 +8900,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7917,8 +8939,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7950,8 +8978,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7983,8 +9017,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8016,8 +9056,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8049,8 +9095,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8082,8 +9134,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8115,8 +9173,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8148,8 +9212,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8181,8 +9251,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8214,8 +9290,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8247,8 +9329,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8280,8 +9368,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8313,8 +9407,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8346,8 +9446,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8379,8 +9485,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8412,8 +9524,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8445,8 +9563,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8478,8 +9602,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8511,8 +9641,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8544,8 +9680,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8577,8 +9719,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8610,8 +9758,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8643,8 +9797,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8676,8 +9836,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8709,8 +9875,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8742,8 +9914,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8775,8 +9953,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8808,8 +9992,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8841,8 +10031,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8871,11 +10067,17 @@
         <v>934.9459500300001</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +10106,17 @@
         <v>934.9459500300001</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8937,11 +10145,17 @@
         <v>935.2769500300001</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8970,11 +10184,17 @@
         <v>931.7089500300001</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +10223,17 @@
         <v>1281.99505003</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9036,11 +10262,17 @@
         <v>1320.60705003</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +10301,17 @@
         <v>1718.53895003</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9105,8 +10343,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9138,8 +10382,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9171,8 +10421,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9204,8 +10460,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9237,8 +10499,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9270,8 +10538,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9303,8 +10577,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9336,8 +10616,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9369,8 +10655,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9402,8 +10694,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9435,8 +10733,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9468,8 +10772,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9501,8 +10811,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9534,8 +10850,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9567,8 +10889,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9600,8 +10928,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9633,8 +10967,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9666,8 +11006,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9699,8 +11045,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9732,8 +11084,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9765,8 +11123,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9795,13 +11159,19 @@
         <v>2402.74585003</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>64550</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L280" t="n">
-        <v>1</v>
+        <v>1.039926413632843</v>
       </c>
       <c r="M280" t="inlineStr"/>
     </row>
@@ -9828,7 +11198,7 @@
         <v>2536.71435003</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9861,7 +11231,7 @@
         <v>2489.07975003</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9894,7 +11264,7 @@
         <v>2449.60105003</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9927,7 +11297,7 @@
         <v>2472.66625003</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9960,7 +11330,7 @@
         <v>2472.66625003</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9993,7 +11363,7 @@
         <v>2510.60725003</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10026,7 +11396,7 @@
         <v>2506.65425003</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10059,7 +11429,7 @@
         <v>2406.65425003</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10092,7 +11462,7 @@
         <v>2406.65425003</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10125,7 +11495,7 @@
         <v>2396.55805003</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10158,7 +11528,7 @@
         <v>2392.05805003</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10191,7 +11561,7 @@
         <v>2305.65785003</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10290,7 +11660,7 @@
         <v>2232.79885003</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10323,7 +11693,7 @@
         <v>2227.79885003</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10356,7 +11726,7 @@
         <v>2236.38385003</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10719,7 +12089,7 @@
         <v>2322.59639514</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10818,7 +12188,7 @@
         <v>2368.937127820001</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10851,7 +12221,7 @@
         <v>2362.730127820001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
